--- a/medicine/Psychotrope/Brasserie_de_Bouillon/Brasserie_de_Bouillon.xlsx
+++ b/medicine/Psychotrope/Brasserie_de_Bouillon/Brasserie_de_Bouillon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie de Bouillon est une brasserie artisanale belge située à Sensenruth dans la commune de Bouillon au sud-ouest de la province de Luxembourg.
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En octobre 1994, un magasin de fruits, légumes et fromages est ouvert à Bouillon. Très vite, quelques bières se rapportant aux fromages locaux y sont vendues. La proximité de la frontière française aidant, les ventes de bières augmentent et le choix s'étoffe rapidement.
 En 1996, les propriétaires du magasin, Jacques Pougin et Nathalie Louis, créent leur première bière : la Cuvée de Bouillon qu'ils font brasser dans une brasserie de la province de Namur. Cette bière rencontre un grand succès.
-En juin 1998, la brasserie de Bouillon voit le jour[1]. Le brassage se fait à la vue de la clientèle. La production augmente. La Médiévale puis d'autres bières sont créées. Les locaux devenant trop exigus, la brasserie emménage le long de la N.89 à Sensenruth, un village de la commune de Bouillon en juin 2005.
+En juin 1998, la brasserie de Bouillon voit le jour. Le brassage se fait à la vue de la clientèle. La production augmente. La Médiévale puis d'autres bières sont créées. Les locaux devenant trop exigus, la brasserie emménage le long de la N.89 à Sensenruth, un village de la commune de Bouillon en juin 2005.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie artisanale produit actuellement quatre bières régulières et trois bières de saison :
 Cuvée de Bouillon, bière blonde aux arômes de coriandre, citron et orange, non filtrée et refermentée en bouteille titrant 6,5 % en volume d'alcool.
